--- a/pearson_tables/t2m_netherlands-3-12.xlsx
+++ b/pearson_tables/t2m_netherlands-3-12.xlsx
@@ -458,10 +458,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-0.6672563667046287</v>
+        <v>0.6742952501365937</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7574746421257897</v>
+        <v>0.753548703160011</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6991508558966967</v>
+        <v>0.7029975329123593</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7543292524894757</v>
+        <v>-0.7485016639922196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6685758090812749</v>
+        <v>0.7117477281713626</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.580999431275434</v>
+        <v>-0.5806511269897915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6567862976161712</v>
+        <v>-0.6910453398985321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6443843518227461</v>
+        <v>0.6621674588708382</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5898505354408774</v>
+        <v>-0.5736507905492713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6995117603621314</v>
+        <v>-0.6187236023588955</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6433548079811552</v>
+        <v>-0.6650488329138234</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5923928086476876</v>
+        <v>0.5875158140643648</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7211157700522417</v>
+        <v>-0.6759856675442053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7796161941227253</v>
+        <v>-0.7221743093942519</v>
       </c>
     </row>
     <row r="7">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7709734479070188</v>
+        <v>0.7683279318924957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6787285392719298</v>
+        <v>-0.6178857552030708</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8044135204345545</v>
+        <v>0.7397933964685425</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7716732478606485</v>
+        <v>0.7627723112583483</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6524718879570492</v>
+        <v>0.6158911077634686</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8014594699697124</v>
+        <v>0.789432957893222</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6589004172498</v>
+        <v>-0.6659068812185581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6493009972845201</v>
+        <v>0.6543146566019556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.732134242234324</v>
+        <v>-0.6570529102178287</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-12.xlsx
+++ b/pearson_tables/t2m_netherlands-3-12.xlsx
@@ -456,12 +456,14 @@
           <t>SCA_N</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.6742952501365937</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.753548703160011</v>
+        <v>-0.677167643176708</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7029975329123593</v>
+        <v>0.7141847117164766</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7485016639922196</v>
+        <v>-0.6656932886364156</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7117477281713626</v>
+        <v>-0.7613811385274181</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5806511269897915</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6910453398985321</v>
+        <v>-0.6745126611206681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6621674588708382</v>
+        <v>-0.6786028277126004</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5736507905492713</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6187236023588955</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6650488329138234</v>
+        <v>0.63840281278613</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5875158140643648</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6759856675442053</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7221743093942519</v>
+        <v>-0.8038404870160419</v>
       </c>
     </row>
     <row r="7">
@@ -535,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7683279318924957</v>
+        <v>-0.7493204663214563</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6178857552030708</v>
+        <v>-0.6580824943572741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7397933964685425</v>
+        <v>0.8381110819000569</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7627723112583483</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6158911077634686</v>
+        <v>-0.6300590212090541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.789432957893222</v>
+        <v>-0.8343932680828058</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6659068812185581</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6543146566019556</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6570529102178287</v>
+        <v>-0.6921262015650442</v>
       </c>
     </row>
   </sheetData>
